--- a/tests/data/desired/layoutparamlimitsreport.xlsx
+++ b/tests/data/desired/layoutparamlimitsreport.xlsx
@@ -3903,7 +3903,7 @@
   <cols>
     <col min="1" max="1" width="18.234375" customWidth="true"/>
     <col min="2" max="2" width="8.42578125" customWidth="true"/>
-    <col min="3" max="3" width="14.6796875" customWidth="true"/>
+    <col min="3" max="3" width="20.8515625" customWidth="true"/>
     <col min="4" max="4" width="24.98046875" customWidth="true"/>
     <col min="5" max="5" width="16.9375" customWidth="true"/>
     <col min="6" max="6" width="13.52734375" customWidth="true"/>
@@ -3922,12 +3922,12 @@
       </c>
       <c r="C1" s="8" t="inlineStr">
         <is>
-          <t>Source1</t>
+          <t>Value in Source1</t>
         </is>
       </c>
       <c r="D1" s="8" t="inlineStr">
         <is>
-          <t>Source2</t>
+          <t>Value in Source2</t>
         </is>
       </c>
       <c r="E1" s="8" t="inlineStr">
